--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7934510-B6FF-4E5E-A785-D6D7504F724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t># of samples:</t>
   </si>
@@ -137,9 +137,6 @@
     <t>mL</t>
   </si>
   <si>
-    <t>Sets of 12 samples:</t>
-  </si>
-  <si>
     <t>To make AHA stock solution</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Stock conc</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>EtOH</t>
@@ -217,9 +211,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>volume/mass</t>
-  </si>
-  <si>
     <t>hyperlink</t>
   </si>
   <si>
@@ -320,22 +311,54 @@
   <si>
     <t>PFA Kill</t>
   </si>
+  <si>
+    <t>Molecular Weight:</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>g/mL</t>
+  </si>
+  <si>
+    <t>1X PBS</t>
+  </si>
+  <si>
+    <t>Tubes</t>
+  </si>
+  <si>
+    <t>Replicate Type for each sample</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>General Use</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>To make Alexa 488 stock solution</t>
+  </si>
+  <si>
+    <t>L-Azidohomoalanine</t>
+  </si>
+  <si>
+    <t>C10102</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/molecular-probes-click-it-aha-l-azidohomoalanine/C10102#?keyword=C10102</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +452,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -463,8 +504,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -482,9 +540,79 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -494,56 +622,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -551,82 +636,93 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B9BF-9A1E-4A17-80C3-36D58BD08A15}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,101 +1075,117 @@
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="11">
+      <c r="B1" s="28"/>
+      <c r="C1" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="O1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22">
-        <v>1</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="25">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="19">
+        <v>258.16000000000003</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="26">
-        <v>258.16000000000003</v>
-      </c>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="AB1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="42"/>
+      <c r="AD1">
+        <f>'Chemical Sheet'!F4</f>
+        <v>587.62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <f>(((5/1000)/S1)*1000)</f>
         <v>1.9367833901456459E-2</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
         <f>C1*(5*P23)</f>
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
-        <f>((((C3/(1000*1000*1000))*20)/1000)*258.16)*1000</f>
-        <v>1.0326400000000001E-4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="3">
+        <f>(C3*(1/1000)*(1/1000)*(P1)*(1/1000)*(S1)*(1000))</f>
+        <v>0.10326400000000002</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="31">
+        <v>30</v>
+      </c>
+      <c r="P3" s="21">
         <f>(P2/20)*1000</f>
         <v>0.96839169507282297</v>
       </c>
@@ -1081,364 +1193,440 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
         <f>C1*(0.25*P23)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="3">
+        <f>C4/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
         <f>C1*(0.313*P23)</f>
         <v>1.252</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="O5" s="32" t="s">
+      <c r="E5" s="3">
+        <f>C5/4</f>
+        <v>0.313</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="O5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="32" t="s">
+      <c r="P5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f>C1*(1*3)</f>
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="O6" s="13" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="O6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>20</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f>C1*(1*P23)</f>
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="O7" s="14" t="s">
+      <c r="E7" s="3">
+        <f>(5*C7)/9.5</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="O7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f>C1*(1*P23)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="O8" s="14" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="O8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <f>(C1*(1.25/12))*P23</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <f>(C9*(20/1000)*(1/1000)*('Chemical Sheet'!F2))</f>
+        <v>2.0806666666666669E-3</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="O9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(C1*(2.5/12))*P23</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(C10*(50/1000)*(1/1000)*('Chemical Sheet'!F3))</f>
+        <v>2.2110000000000001E-2</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="O10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10">
+        <v>9.6</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(C1*(0.3/12))*P23</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <f>(C11*(1/1000000)*(1/1000)*('Chemical Sheet'!F4/1000)*(1000))</f>
+        <v>5.8762E-8</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="O11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(C1*(12.5/12))*P23</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <f>(C12*(100/1000)*(1/1000)*('Chemical Sheet'!F6))</f>
+        <v>4.6060416666666673E-2</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="O12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(C1*(12.5/12))*P23</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3">
+        <f>(C13*(100/1000)*(1/1000)*('Chemical Sheet'!F5))</f>
+        <v>8.254583333333336E-2</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="O13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="3">
+        <f>(C13/1000)+(C12/1000)+C8+(C6/2)</f>
+        <v>5.5083333333333337</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="3">
+        <f>E7+(C6/2)</f>
+        <v>3.6052631578947367</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="41">
+        <f>SUM(P19:P22)</f>
         <v>4</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <f>F1*(1.25)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="O9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <f>F1*(2.5)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="O10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <f>F1*(0.3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="O11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <f>F1*12.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="O12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <f>F1*12.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="O13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="O14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>20/1000000000</f>
-        <v>2E-8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1447,16 +1635,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B6EBA1-C7FA-41DB-94FD-102FF070C3CF}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="13.140625" customWidth="1"/>
   </cols>
@@ -1466,158 +1654,202 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="45">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>249.68</v>
       </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="45">
         <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>530.64</v>
       </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="B4" s="45">
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>587.62</v>
       </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="45">
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>198.11</v>
       </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
+        <v>59</v>
+      </c>
+      <c r="B6" s="45">
         <v>65.75</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>110.545</v>
       </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="45">
+        <v>361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>258.16000000000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8878F0-FC4E-44F9-85ED-F2A538354917}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation Sheet" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -690,18 +690,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,19 +703,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1060,32 +1059,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B9BF-9A1E-4A17-80C3-36D58BD08A15}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="35">
+      <c r="B1" s="42"/>
+      <c r="C1" s="32">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="O1" s="17" t="s">
         <v>25</v>
       </c>
@@ -1104,28 +1103,28 @@
       <c r="T1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
       <c r="Z1">
         <v>2</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="42"/>
+      <c r="AC1" s="44"/>
       <c r="AD1">
         <f>'Chemical Sheet'!F4</f>
         <v>587.62</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
@@ -1141,12 +1140,10 @@
       <c r="E2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="29"/>
       <c r="O2" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1176,12 +1173,10 @@
         <f>(C3*(1/1000)*(1/1000)*(P1)*(1/1000)*(S1)*(1000))</f>
         <v>0.10326400000000002</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="G3" s="29"/>
       <c r="O3" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1211,14 +1206,12 @@
         <f>C4/2</f>
         <v>0.5</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1236,12 +1229,10 @@
         <f>C5/4</f>
         <v>0.313</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="G5" s="29"/>
       <c r="O5" s="22" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1266,11 +1257,9 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="29"/>
       <c r="O6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1299,12 +1288,10 @@
         <f>(5*C7)/9.5</f>
         <v>2.1052631578947367</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="G7" s="29"/>
       <c r="O7" s="10" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1329,11 +1316,9 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="29"/>
       <c r="O8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1362,19 +1347,17 @@
         <f>(C9*(20/1000)*(1/1000)*('Chemical Sheet'!F2))</f>
         <v>2.0806666666666669E-3</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="G9" s="29"/>
       <c r="O9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1392,12 +1375,10 @@
         <f>(C10*(50/1000)*(1/1000)*('Chemical Sheet'!F3))</f>
         <v>2.2110000000000001E-2</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="G10" s="29"/>
       <c r="O10" s="11" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1426,12 +1407,10 @@
         <f>(C11*(1/1000000)*(1/1000)*('Chemical Sheet'!F4/1000)*(1000))</f>
         <v>5.8762E-8</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="G11" s="29"/>
       <c r="O11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1460,12 +1439,10 @@
         <f>(C12*(100/1000)*(1/1000)*('Chemical Sheet'!F6))</f>
         <v>4.6060416666666673E-2</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="G12" s="29"/>
       <c r="O12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1476,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1494,12 +1471,10 @@
         <f>(C13*(100/1000)*(1/1000)*('Chemical Sheet'!F5))</f>
         <v>8.254583333333336E-2</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="29"/>
       <c r="O13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1510,15 +1485,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3">
         <f>(C13/1000)+(C12/1000)+C8+(C6/2)</f>
         <v>5.5083333333333337</v>
@@ -1536,15 +1511,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="3">
         <f>E7+(C6/2)</f>
         <v>3.6052631578947367</v>
@@ -1562,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="O16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1573,51 +1548,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="36" t="s">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O18" s="33" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="37" t="s">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="34" t="s">
         <v>64</v>
       </c>
       <c r="P19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="37" t="s">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O20" s="34" t="s">
         <v>65</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="37" t="s">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="34" t="s">
         <v>66</v>
       </c>
       <c r="P21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="37" t="s">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="34" t="s">
         <v>67</v>
       </c>
       <c r="P22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O23" s="41" t="s">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="37">
         <f>SUM(P19:P22)</f>
         <v>4</v>
       </c>
@@ -1635,21 +1610,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B6EBA1-C7FA-41DB-94FD-102FF070C3CF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1678,11 +1653,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="40">
         <v>99</v>
       </c>
       <c r="C2" t="s">
@@ -1707,11 +1682,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <v>117</v>
       </c>
       <c r="C3" t="s">
@@ -1736,11 +1711,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <v>104</v>
       </c>
       <c r="C4" t="s">
@@ -1765,11 +1740,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="40">
         <v>112</v>
       </c>
       <c r="C5" t="s">
@@ -1794,11 +1769,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="40">
         <v>65.75</v>
       </c>
       <c r="C6" t="s">
@@ -1823,11 +1798,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="40">
         <v>361</v>
       </c>
       <c r="C7" t="s">
@@ -1850,6 +1825,12 @@
       </c>
       <c r="I7" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
+        <f>SUM(B2:B7)</f>
+        <v>858.75</v>
       </c>
     </row>
   </sheetData>

--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8878F0-FC4E-44F9-85ED-F2A538354917}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296D460C-FFF7-456F-8278-E7ED2A8BFDA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t># of samples:</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Catalog No.</t>
   </si>
   <si>
-    <t>LC134051</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>https://www.fishersci.com/shop/products/copper-sulfate-pentahydrate-acs-labchem/LC134051#?keyword=Copper%20sulfate</t>
-  </si>
-  <si>
     <t>mg</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>A10267</t>
   </si>
   <si>
-    <t>https://www.sigmaaldrich.com/US/en/search/carboxy-rhodamine-110-alkyne?focus=products&amp;page=1&amp;perpage=30&amp;sort=relevance&amp;term=carboxy%20rhodamine%20110%20alkyne&amp;type=product</t>
-  </si>
-  <si>
     <t>18-606-309</t>
   </si>
   <si>
@@ -349,6 +340,27 @@
   </si>
   <si>
     <t>https://www.fishersci.com/shop/products/molecular-probes-click-it-aha-l-azidohomoalanine/C10102#?keyword=C10102</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>209198-5G</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/US/en/product/sigald/209198</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>https://vectorlabs.com/products/carboxyrhodamine-110-alkyne?gad_source=1&amp;gclid=Cj0KCQjwj4K5BhDYARIsAD1Ly2oKE6t-7eRgcOdu7hbtkYlK-xqOQ0dyy8GM9IneCltJG5-nVXYT3xoaAg76EALw_wcB</t>
+  </si>
+  <si>
+    <t>Vector</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -738,6 +754,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,10 +1095,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="32">
         <v>1</v>
       </c>
@@ -1103,22 +1123,22 @@
       <c r="T1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
+      <c r="V1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="Z1">
         <v>2</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="44"/>
+      <c r="AB1" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="46"/>
       <c r="AD1">
         <f>'Chemical Sheet'!F4</f>
         <v>587.62</v>
@@ -1138,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>21</v>
@@ -1174,7 +1194,7 @@
         <v>0.10326400000000002</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="29"/>
       <c r="O3" t="s">
@@ -1299,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -1326,7 +1346,7 @@
         <v>0.4</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
@@ -1345,10 +1365,10 @@
       </c>
       <c r="E9" s="3">
         <f>(C9*(20/1000)*(1/1000)*('Chemical Sheet'!F2))</f>
-        <v>2.0806666666666669E-3</v>
+        <v>2.0807500000000001E-3</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="29"/>
       <c r="O9" s="10" t="s">
@@ -1376,7 +1396,7 @@
         <v>2.2110000000000001E-2</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="29"/>
       <c r="O10" s="11" t="s">
@@ -1386,7 +1406,7 @@
         <v>9.6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -1408,7 +1428,7 @@
         <v>5.8762E-8</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="29"/>
       <c r="O11" s="11" t="s">
@@ -1418,7 +1438,7 @@
         <v>0.01</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
@@ -1440,7 +1460,7 @@
         <v>4.6060416666666673E-2</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="29"/>
       <c r="O12" s="12" t="s">
@@ -1472,7 +1492,7 @@
         <v>8.254583333333336E-2</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="29"/>
       <c r="O13" s="12" t="s">
@@ -1487,10 +1507,10 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -1513,7 +1533,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>39</v>
@@ -1550,15 +1570,15 @@
     </row>
     <row r="18" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O18" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O19" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P19" s="3">
         <v>1</v>
@@ -1566,7 +1586,7 @@
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O20" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
@@ -1574,7 +1594,7 @@
     </row>
     <row r="21" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O21" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P21" s="3">
         <v>1</v>
@@ -1582,7 +1602,7 @@
     </row>
     <row r="22" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O22" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P22" s="3">
         <v>1</v>
@@ -1590,7 +1610,7 @@
     </row>
     <row r="23" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O23" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P23" s="37">
         <f>SUM(P19:P22)</f>
@@ -1610,21 +1630,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B6EBA1-C7FA-41DB-94FD-102FF070C3CF}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.109375" customWidth="1"/>
+    <col min="5" max="9" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1635,68 +1655,71 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="40">
-        <v>99</v>
+        <v>43.8</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
       <c r="F2">
-        <v>249.68</v>
+        <v>249.69</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="40">
-        <v>117</v>
+        <v>99.65</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>530.64</v>
@@ -1705,27 +1728,30 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
       <c r="B4" s="40">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>587.62</v>
@@ -1734,13 +1760,16 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1748,13 +1777,13 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>198.11</v>
@@ -1763,27 +1792,30 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="40">
         <v>65.75</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>110.545</v>
@@ -1792,27 +1824,30 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="40">
         <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>258.16000000000003</v>
@@ -1821,26 +1856,34 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+        <v>82</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="41">
         <f>SUM(B2:B7)</f>
-        <v>858.75</v>
+        <v>783.2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="?keyword=Copper%20sulfate" xr:uid="{EF8A4F7C-161D-4D1B-BD28-EE06F1D3BCFD}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{1ED2DE94-ED6A-422B-8E96-6B42D87D5048}"/>
-    <hyperlink ref="I6" r:id="rId3" location="?keyword=Aminoguanidine%20hydrocholride" xr:uid="{8FCA597C-5F21-4FFD-AF80-DA8C43F45399}"/>
-    <hyperlink ref="I5" r:id="rId4" location="?keyword=Sodium%20Ascorbate" display="https://www.fishersci.com/shop/products/sodium-ascorbate-usp-99-101-spectrum-chemical-1/18606309 - ?keyword=Sodium%20Ascorbate" xr:uid="{89DFCD02-4951-4799-AA87-C5581420442F}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{EF8A4F7C-161D-4D1B-BD28-EE06F1D3BCFD}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{1ED2DE94-ED6A-422B-8E96-6B42D87D5048}"/>
+    <hyperlink ref="J6" r:id="rId3" location="?keyword=Aminoguanidine%20hydrocholride" xr:uid="{8FCA597C-5F21-4FFD-AF80-DA8C43F45399}"/>
+    <hyperlink ref="J5" r:id="rId4" location="?keyword=Sodium%20Ascorbate" display="https://www.fishersci.com/shop/products/sodium-ascorbate-usp-99-101-spectrum-chemical-1/18606309 - ?keyword=Sodium%20Ascorbate" xr:uid="{89DFCD02-4951-4799-AA87-C5581420442F}"/>
+    <hyperlink ref="J3" r:id="rId5" location="?keyword=Tris[(1-hydroxypropyl-1H-1,2,3-triazol-4-yl)methyl]amine" xr:uid="{8DF929BC-A2F7-457A-856C-CF512186DA4E}"/>
+    <hyperlink ref="J7" r:id="rId6" location="?keyword=C10102" xr:uid="{A667E0AD-4A06-4BF3-8522-E9926E39A539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296D460C-FFF7-456F-8278-E7ED2A8BFDA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE6E6B-F113-44AB-B56D-9D7B3717D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation Sheet" sheetId="1" r:id="rId1"/>
@@ -754,10 +754,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,22 +1075,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B9BF-9A1E-4A17-80C3-36D58BD08A15}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1140,7 @@
         <v>587.62</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1208,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1227,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1373,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1473,7 +1469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>72</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>72</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O18" s="33" t="s">
         <v>70</v>
       </c>
@@ -1576,7 +1572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O19" s="34" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O20" s="34" t="s">
         <v>62</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O21" s="34" t="s">
         <v>63</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O22" s="34" t="s">
         <v>64</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O23" s="37" t="s">
         <v>71</v>
       </c>
@@ -1632,19 +1628,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B6EBA1-C7FA-41DB-94FD-102FF070C3CF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1865,7 +1861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>78</v>
       </c>

--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE6E6B-F113-44AB-B56D-9D7B3717D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B276F3D-886C-4C09-B169-EC7CC7DD78C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t># of samples:</t>
   </si>
@@ -267,9 +267,6 @@
     <t>https://www.fishersci.com/shop/products/tris-1-benzyl-1h-1-2-3-triazol-4-yl-methyl-amine-97-thermo-scientific-2/AAH66485MD#?keyword=Tris[(1-hydroxypropyl-1H-1,2,3-triazol-4-yl)methyl]amine</t>
   </si>
   <si>
-    <t>Alexa Flour 488</t>
-  </si>
-  <si>
     <t>A10267</t>
   </si>
   <si>
@@ -291,18 +288,6 @@
     <t>Total used</t>
   </si>
   <si>
-    <t>Glycerol Live</t>
-  </si>
-  <si>
-    <t>PFA Live</t>
-  </si>
-  <si>
-    <t>Glycerol Kill</t>
-  </si>
-  <si>
-    <t>PFA Kill</t>
-  </si>
-  <si>
     <t>Molecular Weight:</t>
   </si>
   <si>
@@ -361,6 +346,21 @@
   </si>
   <si>
     <t>Vector</t>
+  </si>
+  <si>
+    <t>Carboxyrhodamine 110 Alkyne</t>
+  </si>
+  <si>
+    <t>Conversion from mmol dye to mL of DMSO needed</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Kill</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,11 +732,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B9BF-9A1E-4A17-80C3-36D58BD08A15}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,8 +1089,10 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1120,22 +1125,22 @@
         <v>27</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="W1" s="45"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
-      <c r="Z1">
-        <v>2</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
+      <c r="Z1" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="AB1" s="46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="46"/>
-      <c r="AD1">
+      <c r="AD1" s="3">
         <f>'Chemical Sheet'!F4</f>
         <v>587.62</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>21</v>
@@ -1170,6 +1175,20 @@
       <c r="Q2" t="s">
         <v>32</v>
       </c>
+      <c r="V2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="3">
+        <f>(((1/1000)/AD1)*1000)</f>
+        <v>1.7017800619447943E-3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1180,14 +1199,14 @@
       </c>
       <c r="C3" s="3">
         <f>C1*(5*P23)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3">
         <f>(C3*(1/1000)*(1/1000)*(P1)*(1/1000)*(S1)*(1000))</f>
-        <v>0.10326400000000002</v>
+        <v>0.15489600000000003</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>50</v>
@@ -1197,12 +1216,26 @@
         <v>30</v>
       </c>
       <c r="P3" s="21">
-        <f>(P2/20)*1000</f>
+        <f>(P2/P1)*1000</f>
         <v>0.96839169507282297</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
       </c>
+      <c r="V3" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="3">
+        <f>(Z2/Z1)*1000</f>
+        <v>0.17017800619447945</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1213,14 +1246,14 @@
       </c>
       <c r="C4" s="3">
         <f>C1*(0.25*P23)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3">
         <f>C4/2</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>24</v>
@@ -1236,14 +1269,14 @@
       </c>
       <c r="C5" s="3">
         <f>C1*(0.313*P23)</f>
-        <v>1.252</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
         <f>C5/4</f>
-        <v>0.313</v>
+        <v>0.46950000000000003</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>24</v>
@@ -1295,14 +1328,14 @@
       </c>
       <c r="C7" s="3">
         <f>C1*(1*P23)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3">
         <f>(5*C7)/9.5</f>
-        <v>2.1052631578947367</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>24</v>
@@ -1315,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1327,7 +1360,7 @@
       </c>
       <c r="C8" s="3">
         <f>C1*(1*P23)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1342,7 +1375,7 @@
         <v>0.4</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
@@ -1354,14 +1387,14 @@
       </c>
       <c r="C9" s="3">
         <f>(C1*(1.25/12))*P23</f>
-        <v>0.41666666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3">
         <f>(C9*(20/1000)*(1/1000)*('Chemical Sheet'!F2))</f>
-        <v>2.0807500000000001E-3</v>
+        <v>3.1211250000000002E-3</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>47</v>
@@ -1382,14 +1415,14 @@
       </c>
       <c r="C10" s="3">
         <f>(C1*(2.5/12))*P23</f>
-        <v>0.83333333333333337</v>
+        <v>1.25</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3">
         <f>(C10*(50/1000)*(1/1000)*('Chemical Sheet'!F3))</f>
-        <v>2.2110000000000001E-2</v>
+        <v>3.3165E-2</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>47</v>
@@ -1402,7 +1435,7 @@
         <v>9.6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1414,14 +1447,14 @@
       </c>
       <c r="C11" s="3">
         <f>(C1*(0.3/12))*P23</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3">
         <f>(C11*(1/1000000)*(1/1000)*('Chemical Sheet'!F4/1000)*(1000))</f>
-        <v>5.8762E-8</v>
+        <v>8.814300000000001E-8</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>50</v>
@@ -1434,7 +1467,7 @@
         <v>0.01</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="18" x14ac:dyDescent="0.35">
@@ -1446,14 +1479,14 @@
       </c>
       <c r="C12" s="3">
         <f>(C1*(12.5/12))*P23</f>
-        <v>4.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="3">
         <f>(C12*(100/1000)*(1/1000)*('Chemical Sheet'!F6))</f>
-        <v>4.6060416666666673E-2</v>
+        <v>6.9090625000000003E-2</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>47</v>
@@ -1478,14 +1511,14 @@
       </c>
       <c r="C13" s="3">
         <f>(C1*(12.5/12))*P23</f>
-        <v>4.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3">
         <f>(C13*(100/1000)*(1/1000)*('Chemical Sheet'!F5))</f>
-        <v>8.254583333333336E-2</v>
+        <v>0.12381875000000001</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>47</v>
@@ -1503,16 +1536,16 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="3">
         <f>(C13/1000)+(C12/1000)+C8+(C6/2)</f>
-        <v>5.5083333333333337</v>
+        <v>7.5125000000000002</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1529,7 +1562,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>39</v>
@@ -1538,7 +1571,7 @@
       <c r="D15" s="38"/>
       <c r="E15" s="3">
         <f>E7+(C6/2)</f>
-        <v>3.6052631578947367</v>
+        <v>4.6578947368421053</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -1566,23 +1599,23 @@
     </row>
     <row r="18" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O18" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O19" s="34" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="P19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O20" s="34" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
@@ -1590,34 +1623,32 @@
     </row>
     <row r="21" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O21" s="34" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
+      <c r="O22" s="34"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O23" s="37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P23" s="37">
         <f>SUM(P19:P22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1629,12 +1660,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="13.140625" customWidth="1"/>
@@ -1651,7 +1682,7 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -1692,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,7 +1758,7 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>52</v>
@@ -1735,7 +1766,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B4" s="40">
         <v>101</v>
@@ -1756,13 +1787,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1788,18 +1819,18 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="40">
         <v>65.75</v>
@@ -1820,18 +1851,18 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" s="40">
         <v>361</v>
@@ -1852,18 +1883,18 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" s="41">
         <f>SUM(B2:B7)</f>

--- a/Click Chem list.xlsx
+++ b/Click Chem list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296D460C-FFF7-456F-8278-E7ED2A8BFDA3}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{7D2DAE08-2852-4EF1-AF44-580D09B1716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5419669-6175-4038-B2D4-B4AEAC57D0A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81B0F728-5FCA-4821-B211-73F087107BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation Sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t># of samples:</t>
   </si>
@@ -291,18 +291,6 @@
     <t>Total used</t>
   </si>
   <si>
-    <t>Glycerol Live</t>
-  </si>
-  <si>
-    <t>PFA Live</t>
-  </si>
-  <si>
-    <t>Glycerol Kill</t>
-  </si>
-  <si>
-    <t>PFA Kill</t>
-  </si>
-  <si>
     <t>Molecular Weight:</t>
   </si>
   <si>
@@ -361,6 +349,12 @@
   </si>
   <si>
     <t>Vector</t>
+  </si>
+  <si>
+    <t>Lives</t>
+  </si>
+  <si>
+    <t>Controls</t>
   </si>
 </sst>
 </file>
@@ -754,10 +748,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,22 +1069,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B9BF-9A1E-4A17-80C3-36D58BD08A15}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W1" s="45"/>
       <c r="X1" s="45"/>
@@ -1136,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="AB1" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC1" s="46"/>
       <c r="AD1">
@@ -1144,7 +1134,7 @@
         <v>587.62</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1183,15 +1173,15 @@
         <v>34</v>
       </c>
       <c r="C3" s="3">
-        <f>C1*(5*P23)</f>
-        <v>20</v>
+        <f>C1*(150*P23)</f>
+        <v>900</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3">
         <f>(C3*(1/1000)*(1/1000)*(P1)*(1/1000)*(S1)*(1000))</f>
-        <v>0.10326400000000002</v>
+        <v>4.6468800000000012</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>50</v>
@@ -1208,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1217,21 +1207,21 @@
       </c>
       <c r="C4" s="3">
         <f>C1*(0.25*P23)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3">
         <f>C4/2</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1240,14 +1230,14 @@
       </c>
       <c r="C5" s="3">
         <f>C1*(0.313*P23)</f>
-        <v>1.252</v>
+        <v>1.8780000000000001</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
         <f>C5/4</f>
-        <v>0.313</v>
+        <v>0.46950000000000003</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>24</v>
@@ -1263,7 +1253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1299,14 +1289,14 @@
       </c>
       <c r="C7" s="3">
         <f>C1*(1*P23)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3">
         <f>(5*C7)/9.5</f>
-        <v>2.1052631578947367</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>24</v>
@@ -1319,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="C8" s="3">
         <f>C1*(1*P23)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1346,10 +1336,10 @@
         <v>0.4</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1358,14 +1348,14 @@
       </c>
       <c r="C9" s="3">
         <f>(C1*(1.25/12))*P23</f>
-        <v>0.41666666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3">
         <f>(C9*(20/1000)*(1/1000)*('Chemical Sheet'!F2))</f>
-        <v>2.0807500000000001E-3</v>
+        <v>3.1211250000000002E-3</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>47</v>
@@ -1377,7 +1367,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1386,14 +1376,14 @@
       </c>
       <c r="C10" s="3">
         <f>(C1*(2.5/12))*P23</f>
-        <v>0.83333333333333337</v>
+        <v>1.25</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3">
         <f>(C10*(50/1000)*(1/1000)*('Chemical Sheet'!F3))</f>
-        <v>2.2110000000000001E-2</v>
+        <v>3.3165E-2</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>47</v>
@@ -1406,10 +1396,10 @@
         <v>9.6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1418,14 +1408,14 @@
       </c>
       <c r="C11" s="3">
         <f>(C1*(0.3/12))*P23</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3">
         <f>(C11*(1/1000000)*(1/1000)*('Chemical Sheet'!F4/1000)*(1000))</f>
-        <v>5.8762E-8</v>
+        <v>8.814300000000001E-8</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>50</v>
@@ -1438,10 +1428,10 @@
         <v>0.01</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1450,14 +1440,14 @@
       </c>
       <c r="C12" s="3">
         <f>(C1*(12.5/12))*P23</f>
-        <v>4.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="3">
         <f>(C12*(100/1000)*(1/1000)*('Chemical Sheet'!F6))</f>
-        <v>4.6060416666666673E-2</v>
+        <v>6.9090625000000003E-2</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>47</v>
@@ -1473,7 +1463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1482,14 +1472,14 @@
       </c>
       <c r="C13" s="3">
         <f>(C1*(12.5/12))*P23</f>
-        <v>4.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3">
         <f>(C13*(100/1000)*(1/1000)*('Chemical Sheet'!F5))</f>
-        <v>8.254583333333336E-2</v>
+        <v>0.12381875000000001</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>47</v>
@@ -1505,18 +1495,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="3">
         <f>(C13/1000)+(C12/1000)+C8+(C6/2)</f>
-        <v>5.5083333333333337</v>
+        <v>7.5125000000000002</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1531,9 +1521,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>39</v>
@@ -1542,7 +1532,7 @@
       <c r="D15" s="38"/>
       <c r="E15" s="3">
         <f>E7+(C6/2)</f>
-        <v>3.6052631578947367</v>
+        <v>4.6578947368421053</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -1557,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1568,53 +1558,45 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O18" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O19" s="34" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O20" s="34" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="P20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="34"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="34"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O23" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P23" s="37">
         <f>SUM(P19:P22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1632,19 +1614,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B6EBA1-C7FA-41DB-94FD-102FF070C3CF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1655,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -1673,7 +1655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -1696,16 +1678,16 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1731,13 +1713,13 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1763,13 +1745,13 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1795,13 +1777,13 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1827,15 +1809,15 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="40">
         <v>361</v>
@@ -1856,18 +1838,18 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" s="41">
         <f>SUM(B2:B7)</f>
